--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st02.xlsx
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eyjafjalla"]   If possible, I would recommend beginning evacuation efforts as soon as possible.                    
+    <t xml:space="preserve">[name="Eyjafjalla"]   If possible, I would recommend beginning evacuation efforts as soon as possible.                    
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st02.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   So if that's all settled, let's get going, Doctor. Please prepare everything you need, and we'll head for the City Hall at 2 PM.
+    <t xml:space="preserve">[name="Ceylon"]   So if that's all settled, let's get going, Doctor. Please prepare everything you need, and we'll head for the City Hall at 2 P.M.
 </t>
   </si>
   <si>
